--- a/MyAll/MyAll.xlsx
+++ b/MyAll/MyAll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,19 +33,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>复习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步数</t>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/10/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -374,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -385,7 +397,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,13 +411,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/MyAll/MyAll.xlsx
+++ b/MyAll/MyAll.xlsx
@@ -19,45 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习</t>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20/10/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
+    <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,9 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,49 +356,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
